--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr2_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr2_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,7 +247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -199,45 +265,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.2909992234798115</v>
+        <v>0.29098036502880664</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29146496709644593</v>
+        <v>0.29146657090921285</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.00015209593341319376</v>
+        <v>0.00015458716161783874</v>
       </c>
       <c r="E3" s="0">
-        <v>7.2172347740085492e-05</v>
+        <v>7.3261295381724656e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>-6.8938884023263321e-05</v>
+        <v>-6.7485989986095293e-05</v>
       </c>
       <c r="G3" s="0">
-        <v>4.7398578694783122e-05</v>
+        <v>4.8006121276398091e-05</v>
       </c>
       <c r="H3" s="0">
-        <v>-1.3865205627654529e-05</v>
+        <v>-1.3760637573874278e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>0.00018922359392032351</v>
+        <v>0.00019120021373795305</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-0.00015026684423841141</v>
+        <v>-0.00015026703028525601</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.28928237455310307</v>
+        <v>0.28907049488472192</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.00045834272950910068</v>
+        <v>-0.00054933075860010949</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-6.4465302401354004e-06</v>
+        <v>-6.4445962965596501e-06</v>
       </c>
       <c r="F4" s="0">
-        <v>2.2899672014698255e-06</v>
+        <v>2.2860197429548446e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-2.9786596386338293e-05</v>
+        <v>-2.9674807802999558e-05</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.00050864169906643841</v>
+        <v>-0.00050396688619545828</v>
       </c>
       <c r="J4" s="0">
-        <v>-5.9490606025274879e-05</v>
+        <v>-6.0163587990815664e-05</v>
       </c>
       <c r="K4" s="0">
-        <v>4.9138240469370764e-06</v>
+        <v>4.9157704047897433e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.28825349807638706</v>
+        <v>0.28831120781146163</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0014930867586189743</v>
+        <v>0.0015951027162156351</v>
       </c>
       <c r="D5" s="0">
-        <v>-8.5939520948265474e-05</v>
+        <v>-7.8059002313202031e-05</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.00012578615964002916</v>
+        <v>-0.00012652497215771293</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0001386274907848121</v>
+        <v>0.00013904233178330946</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.00082600166663872776</v>
+        <v>-0.00082610389753804802</v>
       </c>
       <c r="H5" s="0">
-        <v>-2.2283699934485591e-05</v>
+        <v>-2.2313529224615413e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>3.6275718993891985e-05</v>
+        <v>3.6292973391966799e-05</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>6.4562399221868016e-05</v>
+        <v>6.4561907280047404e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.29729369414226481</v>
+        <v>0.29729802490441948</v>
       </c>
       <c r="C6" s="0">
-        <v>0.0067324268330695375</v>
+        <v>0.0067199853577529344</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>5.3870845914466835e-05</v>
+        <v>5.3873755391144334e-05</v>
       </c>
       <c r="F6" s="0">
-        <v>-6.1577523521558688e-05</v>
+        <v>-6.1539555506242766e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-5.208762585974591e-05</v>
+        <v>-5.2328057910487526e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0019835798847634982</v>
+        <v>-0.0019897355949304776</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.00068472089818444326</v>
+        <v>-0.00068472139097269791</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.29342308001530526</v>
+        <v>0.29342713858197284</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0017342566657295531</v>
+        <v>-0.0017326899335583343</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00014165951636209746</v>
+        <v>-0.00014150642053232376</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.00088460416538392876</v>
+        <v>-0.00088428550664170001</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00037467542283323033</v>
+        <v>0.00037527647976625121</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>9.4878438075470385e-05</v>
+        <v>9.4721271737097508e-05</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.00053071070827875877</v>
+        <v>-0.00053071071986909857</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.313874872856158</v>
+        <v>0.31376075008598886</v>
       </c>
       <c r="C8" s="0">
-        <v>0.0061824636973486996</v>
+        <v>0.0061460946391925422</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-2.7849652436136262e-05</v>
+        <v>-2.7859484473264022e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00028065182976950466</v>
+        <v>-0.00028072250507255801</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-5.3369552897861921e-06</v>
+        <v>-5.3789220843760898e-06</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.00032190736187695323</v>
+        <v>-0.00031956589794426035</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>8.9624826799916679e-05</v>
+        <v>8.9625435668039266e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>0.29718411472372752</v>
+        <v>0.2970615982947386</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.00049865234404507068</v>
+        <v>0.0005015798830890802</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0011855486349789423</v>
+        <v>-0.0011858993300851548</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0067353982948719351</v>
+        <v>-0.0067352901032076713</v>
       </c>
       <c r="G9" s="0">
-        <v>2.9346873203890244e-05</v>
+        <v>2.948248132802516e-05</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00020043626378677811</v>
+        <v>-0.00020044183965419528</v>
       </c>
       <c r="I9" s="0">
-        <v>-2.2807867241689754e-06</v>
+        <v>-2.2679478475910752e-06</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>2.5771020463805083e-05</v>
+        <v>2.5770967849669812e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.28223637265033508</v>
+        <v>0.28157630251939969</v>
       </c>
       <c r="C10" s="0">
-        <v>0.0052794388992085948</v>
+        <v>0.0053143061583306979</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-7.4738787035592036e-07</v>
+        <v>-7.470219134752113e-07</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00016012380568608211</v>
+        <v>-0.000159832716466979</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-4.9003382212821161e-07</v>
+        <v>-4.8914372227979881e-07</v>
       </c>
       <c r="I10" s="0">
-        <v>7.4500634639780014e-05</v>
+        <v>7.4334412099463668e-05</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0019703227943998918</v>
+        <v>-0.0019809491739093649</v>
       </c>
       <c r="K10" s="0">
-        <v>0.00085372771439323758</v>
+        <v>0.00085372917191151032</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.26870117657428638</v>
+        <v>0.26816538389369488</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.0028092351529062963</v>
+        <v>0.0028208908440998598</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.00059601690701536819</v>
+        <v>-0.00059046096524316915</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.0031141526810496436</v>
+        <v>-0.0030956174461694891</v>
       </c>
       <c r="G11" s="0">
-        <v>0.00016509925703397089</v>
+        <v>0.0001654141726231101</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.00010935923808179588</v>
+        <v>-0.00010847466988493267</v>
       </c>
       <c r="I11" s="0">
-        <v>0.00048556330902887438</v>
+        <v>0.00048792133466603533</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.00010087288134247308</v>
+        <v>0.00010087134361042027</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.24533011036394936</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.013272389342965218</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>-1.5815428507559568e-06</v>
+      </c>
+      <c r="F12" s="0">
+        <v>2.8634260177772055e-06</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>-7.0721011923073045e-07</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.0012979430369909741</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.0037131715316206515</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr2_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr2_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -265,45 +406,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29098036502880664</v>
+        <v>0.29098925617742627</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29146657090921285</v>
+        <v>0.29146760752009221</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.00015458716161783874</v>
+        <v>0.00015432848833792843</v>
       </c>
       <c r="E3" s="0">
-        <v>7.3261295381724656e-05</v>
+        <v>7.2860268265804133e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>-6.7485989986095293e-05</v>
+        <v>-6.7886773109908971e-05</v>
       </c>
       <c r="G3" s="0">
-        <v>4.8006121276398091e-05</v>
+        <v>4.8722021217063634e-05</v>
       </c>
       <c r="H3" s="0">
-        <v>-1.3760637573874278e-05</v>
+        <v>-1.3792612854536535e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>0.00019120021373795305</v>
+        <v>0.00019396559473000254</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-0.00015026703028525601</v>
+        <v>-0.00015026695433151271</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.28907049488472192</v>
+        <v>0.28894248114954763</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.00054933075860010949</v>
+        <v>-0.00058481877693443321</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-6.4445962965596501e-06</v>
+        <v>-6.4426440487873769e-06</v>
       </c>
       <c r="F4" s="0">
-        <v>2.2860197429548446e-06</v>
+        <v>2.2837531751771647e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-2.9674807802999558e-05</v>
+        <v>-2.9573362205630766e-05</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.00050396688619545828</v>
+        <v>-0.00049960282685890375</v>
       </c>
       <c r="J4" s="0">
-        <v>-6.0163587990815664e-05</v>
+        <v>-6.3009755237229356e-05</v>
       </c>
       <c r="K4" s="0">
-        <v>4.9157704047897433e-06</v>
+        <v>4.9176672035078361e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.28831120781146163</v>
+        <v>0.28816914747017719</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0015951027162156351</v>
+        <v>0.0015695748782074402</v>
       </c>
       <c r="D5" s="0">
-        <v>-7.8059002313202031e-05</v>
+        <v>-7.4325500189683066e-05</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.00012652497215771293</v>
+        <v>-0.00012711367206599345</v>
       </c>
       <c r="F5" s="0">
-        <v>0.00013904233178330946</v>
+        <v>0.00013899343491424726</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.00082610389753804802</v>
+        <v>-0.00082816723584424635</v>
       </c>
       <c r="H5" s="0">
-        <v>-2.2313529224615413e-05</v>
+        <v>-2.234810162201174e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>3.6292973391966799e-05</v>
+        <v>3.6244360560667749e-05</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>6.4561907280047404e-05</v>
+        <v>6.4561691555387046e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.29729802490441948</v>
+        <v>0.29723469278929565</v>
       </c>
       <c r="C6" s="0">
-        <v>0.0067199853577529344</v>
+        <v>0.0067600021617519549</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>5.3873755391144334e-05</v>
+        <v>5.3877169924594855e-05</v>
       </c>
       <c r="F6" s="0">
-        <v>-6.1539555506242766e-05</v>
+        <v>-6.128940384318833e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-5.2328057910487526e-05</v>
+        <v>-5.1887199170672562e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0019897355949304776</v>
+        <v>-0.0019889603077289796</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.00068472139097269791</v>
+        <v>-0.00068472135317809713</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.29342713858197284</v>
+        <v>0.29346045228322482</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0017326899335583343</v>
+        <v>-0.00171761415317898</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00014150642053232376</v>
+        <v>-0.00013779913666466732</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.00088428550664170001</v>
+        <v>-0.00086120365808770797</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00037527647976625121</v>
+        <v>0.00037640022272875768</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>9.4721271737097508e-05</v>
+        <v>9.470343822852628e-05</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.00053071071986909857</v>
+        <v>-0.00053071161735940287</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.31376075008598886</v>
+        <v>0.3145459715045571</v>
       </c>
       <c r="C8" s="0">
-        <v>0.0061460946391925422</v>
+        <v>0.006381442600229421</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-2.7859484473264022e-05</v>
+        <v>-2.7876042679984464e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00028072250507255801</v>
+        <v>-0.00028113217286491554</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-5.3789220843760898e-06</v>
+        <v>-5.3995711287935778e-06</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.00031956589794426035</v>
+        <v>-0.00031588208492697872</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>8.9625435668039266e-05</v>
+        <v>8.9622879446193959e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>0.2970615982947386</v>
+        <v>0.29772188984886855</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0005015798830890802</v>
+        <v>0.00047767996583628622</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0011858993300851548</v>
+        <v>-0.0011897144939436984</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0067352901032076713</v>
+        <v>-0.0067494867650447713</v>
       </c>
       <c r="G9" s="0">
-        <v>2.948248132802516e-05</v>
+        <v>2.8826817493011813e-05</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00020044183965419528</v>
+        <v>-0.00020106994210361065</v>
       </c>
       <c r="I9" s="0">
-        <v>-2.2679478475910752e-06</v>
+        <v>-2.2779925425826844e-06</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>2.5770967849669812e-05</v>
+        <v>2.5772973936022403e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.28157630251939969</v>
+        <v>0.28230654659855303</v>
       </c>
       <c r="C10" s="0">
-        <v>0.0053143061583306979</v>
+        <v>0.0052432827178502334</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-7.470219134752113e-07</v>
+        <v>-7.4800426066959021e-07</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.000159832716466979</v>
+        <v>-0.00016143201285656025</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-4.8914372227979881e-07</v>
+        <v>-4.8440974962894406e-07</v>
       </c>
       <c r="I10" s="0">
-        <v>7.4334412099463668e-05</v>
+        <v>7.4121651539136001e-05</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0019809491739093649</v>
+        <v>-0.0019312127452300668</v>
       </c>
       <c r="K10" s="0">
-        <v>0.00085372917191151032</v>
+        <v>0.00085372950015610849</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.26816538389369488</v>
+        <v>0.26847871284037611</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.0028208908440998598</v>
+        <v>0.0027567059927979427</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.00059046096524316915</v>
+        <v>-0.00061524036273336968</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.0030956174461694891</v>
+        <v>-0.0031758904337073506</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0001654141726231101</v>
+        <v>0.00016762384361928399</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.00010847466988493267</v>
+        <v>-0.00011220895708356031</v>
       </c>
       <c r="I11" s="0">
-        <v>0.00048792133466603533</v>
+        <v>0.00049597342210599775</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.00010087134361042027</v>
+        <v>0.00010087507457773315</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.24533011036394936</v>
+        <v>0.24846619024420213</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.013272389342965218</v>
+        <v>-0.023858810677865161</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>-1.5815428507559568e-06</v>
+        <v>7.1110695220324928e-06</v>
       </c>
       <c r="F12" s="0">
-        <v>2.8634260177772055e-06</v>
+        <v>0.00078484243619782439</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>-7.0721011923073045e-07</v>
+        <v>0.00015833845391485107</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.0012979430369909741</v>
+        <v>-0.0003323647881482818</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.0037131715316206515</v>
+        <v>-0.0037569745066258764</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.24101714296848181</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.044366227518253379</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.0060450131887928756</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.001314734433924511</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.0010082983920117593</v>
+      </c>
+      <c r="H13" s="0">
+        <v>-0.00022603003953375385</v>
+      </c>
+      <c r="I13" s="0">
+        <v>-0.0003538980031171321</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0.0032082855914595254</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.024295878908430879</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.2271342540479066</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>4.6086693243325069e-05</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-1.7182795486221405e-05</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>-6.653574351173225e-06</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.021240279229063481</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>7.3965657874097701e-06</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr2_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr2_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,11 +463,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
-    <col min="2" max="2" width="12.64453125" customWidth="true"/>
+    <col min="2" max="2" width="13.64453125" customWidth="true"/>
     <col min="3" max="3" width="16.24609375" customWidth="true"/>
     <col min="4" max="4" width="15.77734375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.29098925617742627</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.29146760752009221</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.28894248114954763</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.28816914747017719</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.29723469278929565</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.29346045228322482</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.3145459715045571</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>0.29772188984886855</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.28230654659855303</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.26847871284037611</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.24846619024420213</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.24101714296848181</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.024295878908430879</v>
+        <v>0.06841937043639662</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.2271342540479066</v>
+        <v>-0.20663552912463873</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>4.6086693243325069e-05</v>
+        <v>3.5184316319054291e-05</v>
       </c>
       <c r="F14" s="0">
-        <v>-1.7182795486221405e-05</v>
+        <v>-0.00058515500378028887</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>-6.653574351173225e-06</v>
+        <v>-0.0031317487264418738</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.021240279229063481</v>
+        <v>-0.020206795591675299</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>7.3965657874097701e-06</v>
+        <v>-0.00061427422517965069</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.010248245567472059</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.12910006350632591</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.0051574900245095999</v>
+      </c>
+      <c r="F15" s="0">
+        <v>-0.012497468670204336</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.012348849060970404</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.0070007049050583581</v>
       </c>
     </row>
   </sheetData>
